--- a/pilot-study/report/participation/adequate-participation/NonParametricAnalysis.xlsx
+++ b/pilot-study/report/participation/adequate-participation/NonParametricAnalysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Pct of Students Having Adequate Participation</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Pct Having Adequate Participation</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -59,10 +59,10 @@
     <t>non-gamified - ont-gamified</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Pct of Students Having Adequate Participation</t>
-  </si>
-  <si>
-    <t>Wilcoxon Analysis for Pct of Students Having Adequate Participation in Type between non-gamified:ont-gamified</t>
+    <t>Summary of Wilcoxon Analysis for Pct Having Adequate Participation</t>
+  </si>
+  <si>
+    <t>Wilcoxon Analysis for Pct Having Adequate Participation in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="218">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B60" t="s" s="219">
         <v>40</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="218">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B66" t="s" s="219">
         <v>40</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="229">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" t="s" s="230">
         <v>40</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="229">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="s" s="230">
         <v>40</v>
